--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.6362898487536</v>
+        <v>337.2416929850267</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.1985026090278</v>
+        <v>461.4289623955687</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.2118385004834</v>
+        <v>417.390829844151</v>
       </c>
       <c r="AD2" t="n">
-        <v>229636.2898487537</v>
+        <v>337241.6929850267</v>
       </c>
       <c r="AE2" t="n">
-        <v>314198.5026090278</v>
+        <v>461428.9623955687</v>
       </c>
       <c r="AF2" t="n">
         <v>7.873791903232739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>284211.8385004834</v>
+        <v>417390.829844151</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.161600305625</v>
+        <v>267.4024506607097</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.8192467588669</v>
+        <v>365.8718299575193</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.1179011033705</v>
+        <v>330.9535360107114</v>
       </c>
       <c r="AD3" t="n">
-        <v>189161.600305625</v>
+        <v>267402.4506607097</v>
       </c>
       <c r="AE3" t="n">
-        <v>258819.2467588669</v>
+        <v>365871.8299575193</v>
       </c>
       <c r="AF3" t="n">
         <v>9.514569524487672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>234117.9011033705</v>
+        <v>330953.5360107114</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.8073908668946</v>
+        <v>267.0482412219793</v>
       </c>
       <c r="AB4" t="n">
-        <v>258.3346017781786</v>
+        <v>365.3871849768308</v>
       </c>
       <c r="AC4" t="n">
-        <v>233.6795099594354</v>
+        <v>330.5151448667763</v>
       </c>
       <c r="AD4" t="n">
-        <v>188807.3908668946</v>
+        <v>267048.2412219793</v>
       </c>
       <c r="AE4" t="n">
-        <v>258334.6017781787</v>
+        <v>365387.1849768308</v>
       </c>
       <c r="AF4" t="n">
         <v>9.572066653883689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>233679.5099594354</v>
+        <v>330515.1448667762</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.8604520035836</v>
+        <v>286.985394354559</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.4578876520314</v>
+        <v>392.6660774579461</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.3594506551574</v>
+        <v>355.1905781356599</v>
       </c>
       <c r="AD2" t="n">
-        <v>199860.4520035836</v>
+        <v>286985.3943545591</v>
       </c>
       <c r="AE2" t="n">
-        <v>273457.8876520314</v>
+        <v>392666.0774579461</v>
       </c>
       <c r="AF2" t="n">
         <v>9.646311072630488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>247359.4506551574</v>
+        <v>355190.5781356599</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.039725451328</v>
+        <v>262.4167988444907</v>
       </c>
       <c r="AB3" t="n">
-        <v>253.1795157389359</v>
+        <v>359.0502411911339</v>
       </c>
       <c r="AC3" t="n">
-        <v>229.0164180965677</v>
+        <v>324.7829901020298</v>
       </c>
       <c r="AD3" t="n">
-        <v>185039.725451328</v>
+        <v>262416.7988444907</v>
       </c>
       <c r="AE3" t="n">
-        <v>253179.5157389359</v>
+        <v>359050.2411911339</v>
       </c>
       <c r="AF3" t="n">
         <v>1.065699883753474e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.11979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>229016.4180965677</v>
+        <v>324782.9901020298</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.4069057383853</v>
+        <v>250.183439848492</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.9994668376814</v>
+        <v>342.3120197149379</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.0942545641299</v>
+        <v>309.6422409913834</v>
       </c>
       <c r="AD2" t="n">
-        <v>175406.9057383853</v>
+        <v>250183.439848492</v>
       </c>
       <c r="AE2" t="n">
-        <v>239999.4668376814</v>
+        <v>342312.0197149379</v>
       </c>
       <c r="AF2" t="n">
         <v>1.482819248483386e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>217094.2545641299</v>
+        <v>309642.2409913834</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.0323043000116</v>
+        <v>244.8928653278417</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.2774559221355</v>
+        <v>335.0732222521127</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.2046601289417</v>
+        <v>303.0943041986919</v>
       </c>
       <c r="AD2" t="n">
-        <v>169032.3043000116</v>
+        <v>244892.8653278417</v>
       </c>
       <c r="AE2" t="n">
-        <v>231277.4559221355</v>
+        <v>335073.2222521126</v>
       </c>
       <c r="AF2" t="n">
         <v>1.31087166788214e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>209204.6601289417</v>
+        <v>303094.3041986919</v>
       </c>
     </row>
   </sheetData>
@@ -3233,28 +3233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.9568573180906</v>
+        <v>256.1838806199033</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.6472025005282</v>
+        <v>350.5220874991423</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.061925630381</v>
+        <v>317.0687514291685</v>
       </c>
       <c r="AD2" t="n">
-        <v>172956.8573180907</v>
+        <v>256183.8806199033</v>
       </c>
       <c r="AE2" t="n">
-        <v>236647.2025005282</v>
+        <v>350522.0874991423</v>
       </c>
       <c r="AF2" t="n">
         <v>1.637124967753091e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>214061.925630381</v>
+        <v>317068.7514291685</v>
       </c>
     </row>
   </sheetData>
@@ -3530,28 +3530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.2768948957565</v>
+        <v>299.5899333774956</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.4466125918942</v>
+        <v>409.9121638221438</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.7267955305903</v>
+        <v>370.790722222293</v>
       </c>
       <c r="AD2" t="n">
-        <v>212276.8948957565</v>
+        <v>299589.9333774956</v>
       </c>
       <c r="AE2" t="n">
-        <v>290446.6125918942</v>
+        <v>409912.1638221439</v>
       </c>
       <c r="AF2" t="n">
         <v>9.120539524900278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>262726.7955305903</v>
+        <v>370790.722222293</v>
       </c>
     </row>
     <row r="3">
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>185.9503938874665</v>
+        <v>263.5545036703785</v>
       </c>
       <c r="AB3" t="n">
-        <v>254.4255324691159</v>
+        <v>360.606899125908</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.1435167388152</v>
+        <v>326.1910827882921</v>
       </c>
       <c r="AD3" t="n">
-        <v>185950.3938874665</v>
+        <v>263554.5036703785</v>
       </c>
       <c r="AE3" t="n">
-        <v>254425.5324691159</v>
+        <v>360606.899125908</v>
       </c>
       <c r="AF3" t="n">
         <v>1.036834171776273e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>230143.5167388152</v>
+        <v>326191.0827882921</v>
       </c>
     </row>
   </sheetData>
@@ -3933,28 +3933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.0016187851473</v>
+        <v>263.6057988268208</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.6544000495772</v>
+        <v>360.6770834219349</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.0186116940511</v>
+        <v>326.2545687936105</v>
       </c>
       <c r="AD2" t="n">
-        <v>181001.6187851474</v>
+        <v>263605.7988268208</v>
       </c>
       <c r="AE2" t="n">
-        <v>247654.4000495772</v>
+        <v>360677.0834219349</v>
       </c>
       <c r="AF2" t="n">
         <v>1.726520681235839e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>224018.6116940511</v>
+        <v>326254.5687936106</v>
       </c>
     </row>
   </sheetData>
@@ -4230,28 +4230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5031751547642</v>
+        <v>260.1434056158064</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.0771398353635</v>
+        <v>355.9396842806171</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.1146899985284</v>
+        <v>321.9693003773587</v>
       </c>
       <c r="AD2" t="n">
-        <v>183503.1751547642</v>
+        <v>260143.4056158064</v>
       </c>
       <c r="AE2" t="n">
-        <v>251077.1398353635</v>
+        <v>355939.6842806172</v>
       </c>
       <c r="AF2" t="n">
         <v>1.132370873027498e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>227114.6899985284</v>
+        <v>321969.3003773587</v>
       </c>
     </row>
     <row r="3">
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.3068885970937</v>
+        <v>258.5345518118716</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.7578866218644</v>
+        <v>353.7383795284531</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.2574848110139</v>
+        <v>319.9780850611905</v>
       </c>
       <c r="AD3" t="n">
-        <v>172306.8885970937</v>
+        <v>258534.5518118716</v>
       </c>
       <c r="AE3" t="n">
-        <v>235757.8866218644</v>
+        <v>353738.3795284531</v>
       </c>
       <c r="AF3" t="n">
         <v>1.175101172885466e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>213257.4848110139</v>
+        <v>319978.0850611905</v>
       </c>
     </row>
   </sheetData>
@@ -4633,28 +4633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.9481198116806</v>
+        <v>284.7064484860674</v>
       </c>
       <c r="AB2" t="n">
-        <v>270.8413503809289</v>
+        <v>389.5479231806797</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.9926320288751</v>
+        <v>352.3700161262589</v>
       </c>
       <c r="AD2" t="n">
-        <v>197948.1198116806</v>
+        <v>284706.4484860674</v>
       </c>
       <c r="AE2" t="n">
-        <v>270841.350380929</v>
+        <v>389547.9231806797</v>
       </c>
       <c r="AF2" t="n">
         <v>1.009011189237345e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>244992.6320288751</v>
+        <v>352370.0161262589</v>
       </c>
     </row>
     <row r="3">
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8414176488617</v>
+        <v>260.9828213085991</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.5399381379931</v>
+        <v>357.0882098639028</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.5333194806967</v>
+        <v>323.0082122909413</v>
       </c>
       <c r="AD3" t="n">
-        <v>183841.4176488617</v>
+        <v>260982.8213085991</v>
       </c>
       <c r="AE3" t="n">
-        <v>251539.9381379931</v>
+        <v>357088.2098639028</v>
       </c>
       <c r="AF3" t="n">
         <v>1.100920998718904e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>227533.3194806967</v>
+        <v>323008.2122909413</v>
       </c>
     </row>
   </sheetData>
@@ -5036,28 +5036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.5400067799094</v>
+        <v>325.1683565476242</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.3302756327545</v>
+        <v>444.9096908439026</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.6173510812429</v>
+        <v>402.4481343844328</v>
       </c>
       <c r="AD2" t="n">
-        <v>227540.0067799094</v>
+        <v>325168.3565476242</v>
       </c>
       <c r="AE2" t="n">
-        <v>311330.2756327546</v>
+        <v>444909.6908439026</v>
       </c>
       <c r="AF2" t="n">
         <v>8.199667042423937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>281617.3510812429</v>
+        <v>402448.1343844327</v>
       </c>
     </row>
     <row r="3">
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.9326660768403</v>
+        <v>265.9680260833077</v>
       </c>
       <c r="AB3" t="n">
-        <v>257.1377647302927</v>
+        <v>363.9091869683718</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.596897359628</v>
+        <v>329.1782049138614</v>
       </c>
       <c r="AD3" t="n">
-        <v>187932.6660768403</v>
+        <v>265968.0260833077</v>
       </c>
       <c r="AE3" t="n">
-        <v>257137.7647302927</v>
+        <v>363909.1869683718</v>
       </c>
       <c r="AF3" t="n">
         <v>9.802879646408496e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>232596.897359628</v>
+        <v>329178.2049138614</v>
       </c>
     </row>
     <row r="4">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.8153583134217</v>
+        <v>265.850718319889</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.9772590731302</v>
+        <v>363.7486813112092</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.4517101371139</v>
+        <v>329.0330176913472</v>
       </c>
       <c r="AD4" t="n">
-        <v>187815.3583134217</v>
+        <v>265850.718319889</v>
       </c>
       <c r="AE4" t="n">
-        <v>256977.2590731302</v>
+        <v>363748.6813112092</v>
       </c>
       <c r="AF4" t="n">
         <v>9.80897106672606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>232451.7101371139</v>
+        <v>329033.0176913472</v>
       </c>
     </row>
   </sheetData>
@@ -5545,28 +5545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.2378703431543</v>
+        <v>255.8472174084461</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.9269645681827</v>
+        <v>350.0614500406942</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.6967419849105</v>
+        <v>316.6520765632457</v>
       </c>
       <c r="AD2" t="n">
-        <v>170237.8703431543</v>
+        <v>255847.2174084461</v>
       </c>
       <c r="AE2" t="n">
-        <v>232926.9645681827</v>
+        <v>350061.4500406942</v>
       </c>
       <c r="AF2" t="n">
         <v>1.255640284458109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>210696.7419849105</v>
+        <v>316652.0765632457</v>
       </c>
     </row>
     <row r="3">
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.0710426239795</v>
+        <v>246.228978537627</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.6987035228883</v>
+        <v>336.9013512908947</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.4902658534126</v>
+        <v>304.7479591678082</v>
       </c>
       <c r="AD3" t="n">
-        <v>170071.0426239795</v>
+        <v>246228.978537627</v>
       </c>
       <c r="AE3" t="n">
-        <v>232698.7035228883</v>
+        <v>336901.3512908947</v>
       </c>
       <c r="AF3" t="n">
         <v>1.265128769405051e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>210490.2658534126</v>
+        <v>304747.9591678082</v>
       </c>
     </row>
   </sheetData>
@@ -5948,28 +5948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.5317335837461</v>
+        <v>251.6718807252152</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.5385059196055</v>
+        <v>344.3485701878465</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.4864099161306</v>
+        <v>311.4844259454747</v>
       </c>
       <c r="AD2" t="n">
-        <v>176531.7335837461</v>
+        <v>251671.8807252152</v>
       </c>
       <c r="AE2" t="n">
-        <v>241538.5059196056</v>
+        <v>344348.5701878465</v>
       </c>
       <c r="AF2" t="n">
         <v>1.416986957544307e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>218486.4099161306</v>
+        <v>311484.4259454747</v>
       </c>
     </row>
   </sheetData>
@@ -9738,28 +9738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1724726476005</v>
+        <v>248.5528921811135</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.3104610235261</v>
+        <v>340.0810324617455</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.5664450943425</v>
+        <v>307.6241760304247</v>
       </c>
       <c r="AD2" t="n">
-        <v>174172.4726476005</v>
+        <v>248552.8921811135</v>
       </c>
       <c r="AE2" t="n">
-        <v>238310.4610235261</v>
+        <v>340081.0324617455</v>
       </c>
       <c r="AF2" t="n">
         <v>1.557533928765779e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>215566.4450943425</v>
+        <v>307624.1760304247</v>
       </c>
     </row>
   </sheetData>
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.225611693086</v>
+        <v>280.368600796197</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.9068299631741</v>
+        <v>383.6126885990654</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.1971254895824</v>
+        <v>347.0012320029597</v>
       </c>
       <c r="AD2" t="n">
-        <v>189225.611693086</v>
+        <v>280368.600796197</v>
       </c>
       <c r="AE2" t="n">
-        <v>258906.8299631741</v>
+        <v>383612.6885990654</v>
       </c>
       <c r="AF2" t="n">
         <v>1.798058347890247e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>234197.1254895824</v>
+        <v>347001.2320029598</v>
       </c>
     </row>
   </sheetData>
@@ -10332,28 +10332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.7901833463358</v>
+        <v>272.339934657512</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.2063253387508</v>
+        <v>372.6275133883647</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.9452304293129</v>
+        <v>337.0644664965781</v>
       </c>
       <c r="AD2" t="n">
-        <v>185790.1833463358</v>
+        <v>272339.934657512</v>
       </c>
       <c r="AE2" t="n">
-        <v>254206.3253387508</v>
+        <v>372627.5133883647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.069096076428333e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>229945.2304293129</v>
+        <v>337064.4664965781</v>
       </c>
     </row>
     <row r="3">
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.3834107713765</v>
+        <v>259.8989966637717</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.2308317535239</v>
+        <v>355.6052731698813</v>
       </c>
       <c r="AC3" t="n">
-        <v>214.5898541265997</v>
+        <v>321.6668049936825</v>
       </c>
       <c r="AD3" t="n">
-        <v>173383.4107713765</v>
+        <v>259898.9966637717</v>
       </c>
       <c r="AE3" t="n">
-        <v>237230.8317535238</v>
+        <v>355605.2731698813</v>
       </c>
       <c r="AF3" t="n">
         <v>1.134348685613522e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>214589.8541265997</v>
+        <v>321666.8049936825</v>
       </c>
     </row>
   </sheetData>
@@ -10735,28 +10735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.2112272114375</v>
+        <v>311.5403497222584</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.0932514029265</v>
+        <v>426.2632506802086</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1208428480795</v>
+        <v>385.5812842995185</v>
       </c>
       <c r="AD2" t="n">
-        <v>214211.2272114375</v>
+        <v>311540.3497222585</v>
       </c>
       <c r="AE2" t="n">
-        <v>293093.2514029265</v>
+        <v>426263.2506802086</v>
       </c>
       <c r="AF2" t="n">
         <v>8.744631344794843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>265120.8428480795</v>
+        <v>385581.2842995184</v>
       </c>
     </row>
     <row r="3">
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.7006959550254</v>
+        <v>264.5240064910026</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.4521288589406</v>
+        <v>361.9334156565317</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.0721362100324</v>
+        <v>327.3909984430109</v>
       </c>
       <c r="AD3" t="n">
-        <v>186700.6959550254</v>
+        <v>264524.0064910026</v>
       </c>
       <c r="AE3" t="n">
-        <v>255452.1288589406</v>
+        <v>361933.4156565318</v>
       </c>
       <c r="AF3" t="n">
         <v>1.012611393357233e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>231072.1362100324</v>
+        <v>327390.9984430109</v>
       </c>
     </row>
     <row r="4">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>186.796951173008</v>
+        <v>264.6202617089852</v>
       </c>
       <c r="AB4" t="n">
-        <v>255.5838294946647</v>
+        <v>362.065116292256</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.1912675219261</v>
+        <v>327.5101297549046</v>
       </c>
       <c r="AD4" t="n">
-        <v>186796.951173008</v>
+        <v>264620.2617089852</v>
       </c>
       <c r="AE4" t="n">
-        <v>255583.8294946647</v>
+        <v>362065.116292256</v>
       </c>
       <c r="AF4" t="n">
         <v>1.01252335276982e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>231191.2675219261</v>
+        <v>327510.1297549046</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.8427607756759</v>
+        <v>324.1304622309628</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.3255876036974</v>
+        <v>443.489598051181</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.1401280149531</v>
+        <v>401.1635732547357</v>
       </c>
       <c r="AD2" t="n">
-        <v>215842.7607756759</v>
+        <v>324130.4622309629</v>
       </c>
       <c r="AE2" t="n">
-        <v>295325.5876036974</v>
+        <v>443489.5980511809</v>
       </c>
       <c r="AF2" t="n">
         <v>1.821168280263103e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>267140.1280149531</v>
+        <v>401163.5732547357</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.1650848428173</v>
+        <v>253.0847247498853</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.0908880017806</v>
+        <v>346.2816857126786</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.1313365855465</v>
+        <v>313.2330476377621</v>
       </c>
       <c r="AD2" t="n">
-        <v>168165.0848428173</v>
+        <v>253084.7247498853</v>
       </c>
       <c r="AE2" t="n">
-        <v>230090.8880017806</v>
+        <v>346281.6857126785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.358043740152452e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>208131.3365855465</v>
+        <v>313233.0476377621</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.4409946545414</v>
+        <v>257.8132584398134</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.2555734979772</v>
+        <v>352.7514741154185</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.5624099922882</v>
+        <v>319.0853685157518</v>
       </c>
       <c r="AD2" t="n">
-        <v>181440.9946545414</v>
+        <v>257813.2584398134</v>
       </c>
       <c r="AE2" t="n">
-        <v>248255.5734979772</v>
+        <v>352751.4741154185</v>
       </c>
       <c r="AF2" t="n">
         <v>1.19778931283846e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>224562.4099922882</v>
+        <v>319085.3685157518</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.2248948711483</v>
+        <v>257.1510955756852</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.2774550718324</v>
+        <v>351.8454736721549</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.9183435703177</v>
+        <v>318.2658354832134</v>
       </c>
       <c r="AD3" t="n">
-        <v>171224.8948711483</v>
+        <v>257151.0955756852</v>
       </c>
       <c r="AE3" t="n">
-        <v>234277.4550718324</v>
+        <v>351845.4736721549</v>
       </c>
       <c r="AF3" t="n">
         <v>1.21233472259296e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>211918.3435703177</v>
+        <v>318265.8354832134</v>
       </c>
     </row>
   </sheetData>
